--- a/data/data1_all_with_DBSCAN.xlsx
+++ b/data/data1_all_with_DBSCAN.xlsx
@@ -587,7 +587,7 @@
         <v>5.071600372638118</v>
       </c>
       <c r="M3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +632,7 @@
         <v>9.405868042321364</v>
       </c>
       <c r="M4" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -677,7 +677,7 @@
         <v>1.992596830150811</v>
       </c>
       <c r="M5" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -722,7 +722,7 @@
         <v>12.61623303581234</v>
       </c>
       <c r="M6" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -767,7 +767,7 @@
         <v>1.996335396925307</v>
       </c>
       <c r="M7" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -812,7 +812,7 @@
         <v>12.44013471734765</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -857,7 +857,7 @@
         <v>12.14625985068699</v>
       </c>
       <c r="M9" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -902,7 +902,7 @@
         <v>5.906889090476702</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -947,7 +947,7 @@
         <v>14.19339363551042</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -992,7 +992,7 @@
         <v>16.30682474980625</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1037,7 +1037,7 @@
         <v>15.98755004709373</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1082,7 +1082,7 @@
         <v>11.77418950755398</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1127,7 +1127,7 @@
         <v>13.87036131765642</v>
       </c>
       <c r="M15" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>11.85746167366049</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1217,7 +1217,7 @@
         <v>14.57836619802519</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1262,7 +1262,7 @@
         <v>15.72219388754468</v>
       </c>
       <c r="M18" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1307,7 +1307,7 @@
         <v>6.303029977093417</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1352,7 +1352,7 @@
         <v>11.95459794727928</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1397,7 +1397,7 @@
         <v>11.20856444182002</v>
       </c>
       <c r="M21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1442,7 +1442,7 @@
         <v>10.26174681661571</v>
       </c>
       <c r="M22" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1487,7 +1487,7 @@
         <v>15.63659535344649</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1532,7 +1532,7 @@
         <v>14.89445497041406</v>
       </c>
       <c r="M24" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1577,7 +1577,7 @@
         <v>6.782722082778973</v>
       </c>
       <c r="M25" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1667,7 +1667,7 @@
         <v>9.84463325774526</v>
       </c>
       <c r="M27" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1712,7 +1712,7 @@
         <v>14.68108139891465</v>
       </c>
       <c r="M28" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1847,7 +1847,7 @@
         <v>6.056643830231497</v>
       </c>
       <c r="M31" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1892,7 +1892,7 @@
         <v>5.302999946541539</v>
       </c>
       <c r="M32" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1937,7 +1937,7 @@
         <v>15.48883166173227</v>
       </c>
       <c r="M33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -2027,7 +2027,7 @@
         <v>6.97787253514954</v>
       </c>
       <c r="M35" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -2072,7 +2072,7 @@
         <v>5.979808443160183</v>
       </c>
       <c r="M36" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -2117,7 +2117,7 @@
         <v>16.3347792370957</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -2207,7 +2207,7 @@
         <v>2.000966709281505</v>
       </c>
       <c r="M39" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -2252,7 +2252,7 @@
         <v>6.995771958962414</v>
       </c>
       <c r="M40" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -2342,7 +2342,7 @@
         <v>8.66610638731404</v>
       </c>
       <c r="M42" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -2387,7 +2387,7 @@
         <v>3.787840763304855</v>
       </c>
       <c r="M43" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -2477,7 +2477,7 @@
         <v>5.141000859347708</v>
       </c>
       <c r="M45" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
@@ -2522,7 +2522,7 @@
         <v>7.921758415627867</v>
       </c>
       <c r="M46" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -2567,7 +2567,7 @@
         <v>3.023668723030979</v>
       </c>
       <c r="M47" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
@@ -2657,7 +2657,7 @@
         <v>4.943314128855174</v>
       </c>
       <c r="M49" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -2792,7 +2792,7 @@
         <v>8.745322689636666</v>
       </c>
       <c r="M52" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -2837,7 +2837,7 @@
         <v>8.58227470789892</v>
       </c>
       <c r="M53" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -2927,7 +2927,7 @@
         <v>7.351343884883057</v>
       </c>
       <c r="M55" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -2972,7 +2972,7 @@
         <v>3.928344886798236</v>
       </c>
       <c r="M56" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -3062,7 +3062,7 @@
         <v>8.652166783524709</v>
       </c>
       <c r="M58" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
@@ -3197,7 +3197,7 @@
         <v>9.590212418935257</v>
       </c>
       <c r="M61" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
@@ -3242,7 +3242,7 @@
         <v>8.953496045829461</v>
       </c>
       <c r="M62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -3287,7 +3287,7 @@
         <v>5.523400309237076</v>
       </c>
       <c r="M63" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -3332,7 +3332,7 @@
         <v>2.000966709281505</v>
       </c>
       <c r="M64" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -3512,7 +3512,7 @@
         <v>7.576942594508216</v>
       </c>
       <c r="M68" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -3557,7 +3557,7 @@
         <v>8.285185197224724</v>
       </c>
       <c r="M69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -3602,7 +3602,7 @@
         <v>4.65286695409144</v>
       </c>
       <c r="M70" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3647,7 +3647,7 @@
         <v>6.817384810644402</v>
       </c>
       <c r="M71" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72">
@@ -3737,7 +3737,7 @@
         <v>5.140280043577979</v>
       </c>
       <c r="M73" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
@@ -3782,7 +3782,7 @@
         <v>4.769224174952992</v>
       </c>
       <c r="M74" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
@@ -3917,7 +3917,7 @@
         <v>3.553133426767743</v>
       </c>
       <c r="M77" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
@@ -3962,7 +3962,7 @@
         <v>5.051647735836786</v>
       </c>
       <c r="M78" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
@@ -4007,7 +4007,7 @@
         <v>6.817384810644402</v>
       </c>
       <c r="M79" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80">
@@ -4097,7 +4097,7 @@
         <v>8.937420118325711</v>
       </c>
       <c r="M81" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
@@ -4187,7 +4187,7 @@
         <v>6.054511150237793</v>
       </c>
       <c r="M83" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84">
@@ -4277,7 +4277,7 @@
         <v>6.611275600685231</v>
       </c>
       <c r="M85" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -4412,7 +4412,7 @@
         <v>7.200394313956877</v>
       </c>
       <c r="M88" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
@@ -4502,7 +4502,7 @@
         <v>6.93998271924158</v>
       </c>
       <c r="M90" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
@@ -4637,7 +4637,7 @@
         <v>7.416855244656727</v>
       </c>
       <c r="M93" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -4682,7 +4682,7 @@
         <v>7.831642717013111</v>
       </c>
       <c r="M94" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
@@ -4727,7 +4727,7 @@
         <v>7.780724574028165</v>
       </c>
       <c r="M95" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
@@ -4772,7 +4772,7 @@
         <v>5.686159783767068</v>
       </c>
       <c r="M96" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -4817,7 +4817,7 @@
         <v>7.424767427954789</v>
       </c>
       <c r="M97" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -4862,7 +4862,7 @@
         <v>7.911428287946568</v>
       </c>
       <c r="M98" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -4907,7 +4907,7 @@
         <v>7.44935938163129</v>
       </c>
       <c r="M99" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
@@ -4952,7 +4952,7 @@
         <v>7.200394313956877</v>
       </c>
       <c r="M100" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
@@ -5042,7 +5042,7 @@
         <v>7.399086603847039</v>
       </c>
       <c r="M102" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
@@ -5087,7 +5087,7 @@
         <v>3.711092297618404</v>
       </c>
       <c r="M103" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
@@ -5132,7 +5132,7 @@
         <v>7.190240312226615</v>
       </c>
       <c r="M104" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
@@ -5177,7 +5177,7 @@
         <v>9.136908970035543</v>
       </c>
       <c r="M105" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
@@ -5222,7 +5222,7 @@
         <v>7.35439168082898</v>
       </c>
       <c r="M106" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
@@ -5402,7 +5402,7 @@
         <v>11.17372436880843</v>
       </c>
       <c r="M110" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
@@ -5537,7 +5537,7 @@
         <v>10.26306178081566</v>
       </c>
       <c r="M113" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
@@ -5627,7 +5627,7 @@
         <v>4.955615775700077</v>
       </c>
       <c r="M115" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116">
@@ -5762,7 +5762,7 @@
         <v>7.333948457393628</v>
       </c>
       <c r="M118" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -5807,7 +5807,7 @@
         <v>5.730246128107434</v>
       </c>
       <c r="M119" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120">
@@ -5852,7 +5852,7 @@
         <v>8.528898390262757</v>
       </c>
       <c r="M120" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
@@ -5897,7 +5897,7 @@
         <v>9.898237744599227</v>
       </c>
       <c r="M121" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
@@ -5942,7 +5942,7 @@
         <v>5.332376388071957</v>
       </c>
       <c r="M122" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123">
@@ -5987,7 +5987,7 @@
         <v>9.074744449563328</v>
       </c>
       <c r="M123" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124">
@@ -6032,7 +6032,7 @@
         <v>9.281287479184838</v>
       </c>
       <c r="M124" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125">
@@ -6077,7 +6077,7 @@
         <v>13.82592791982972</v>
       </c>
       <c r="M125" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
@@ -6122,7 +6122,7 @@
         <v>4.22134203247688</v>
       </c>
       <c r="M126" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127">
@@ -6257,7 +6257,7 @@
         <v>15.90961071129274</v>
       </c>
       <c r="M129" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130">
@@ -6302,7 +6302,7 @@
         <v>5.048412880273765</v>
       </c>
       <c r="M130" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131">
@@ -6347,7 +6347,7 @@
         <v>17.21665137749065</v>
       </c>
       <c r="M131" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132">
@@ -6392,7 +6392,7 @@
         <v>10.29173396723104</v>
       </c>
       <c r="M132" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133">
@@ -6437,7 +6437,7 @@
         <v>12.28958065216959</v>
       </c>
       <c r="M133" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134">
@@ -6527,7 +6527,7 @@
         <v>10.51481862384925</v>
       </c>
       <c r="M135" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136">
@@ -6572,7 +6572,7 @@
         <v>13.77375867999406</v>
       </c>
       <c r="M136" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137">
@@ -6842,7 +6842,7 @@
         <v>6.931646825443361</v>
       </c>
       <c r="M142" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143">
@@ -6887,7 +6887,7 @@
         <v>10.8099173509394</v>
       </c>
       <c r="M143" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144">
@@ -6932,7 +6932,7 @@
         <v>14.31386454717673</v>
       </c>
       <c r="M144" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="145">
@@ -6977,7 +6977,7 @@
         <v>12.35976747677996</v>
       </c>
       <c r="M145" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146">
@@ -7022,7 +7022,7 @@
         <v>19.57555164798633</v>
       </c>
       <c r="M146" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147">
@@ -7112,7 +7112,7 @@
         <v>15.06124979287704</v>
       </c>
       <c r="M148" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149">
@@ -7157,7 +7157,7 @@
         <v>5.790208783626817</v>
       </c>
       <c r="M149" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150">
@@ -7202,7 +7202,7 @@
         <v>5.789232595793047</v>
       </c>
       <c r="M150" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151">
@@ -7292,7 +7292,7 @@
         <v>6.931646825443361</v>
       </c>
       <c r="M152" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153">
@@ -7337,7 +7337,7 @@
         <v>6.689436265746449</v>
       </c>
       <c r="M153" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154">
@@ -7472,7 +7472,7 @@
         <v>6.931646825443361</v>
       </c>
       <c r="M156" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157">
@@ -7517,7 +7517,7 @@
         <v>6.816394452414726</v>
       </c>
       <c r="M157" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158">
@@ -7607,7 +7607,7 @@
         <v>7.240453708458147</v>
       </c>
       <c r="M159" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160">
@@ -7697,7 +7697,7 @@
         <v>11.24986139317193</v>
       </c>
       <c r="M161" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162">
@@ -7877,7 +7877,7 @@
         <v>8.5712917021406</v>
       </c>
       <c r="M165" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166">
@@ -7922,7 +7922,7 @@
         <v>24.36589744268466</v>
       </c>
       <c r="M166" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167">
@@ -7967,7 +7967,7 @@
         <v>6.548384734551491</v>
       </c>
       <c r="M167" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168">
@@ -8147,7 +8147,7 @@
         <v>9.051949468138581</v>
       </c>
       <c r="M171" t="n">
-        <v>-1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172">
@@ -8237,7 +8237,7 @@
         <v>24.36589744268466</v>
       </c>
       <c r="M173" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="174">
@@ -8327,7 +8327,7 @@
         <v>10.91034049820084</v>
       </c>
       <c r="M175" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="176">
@@ -8372,7 +8372,7 @@
         <v>21.23646292884997</v>
       </c>
       <c r="M176" t="n">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="177">
@@ -8462,7 +8462,7 @@
         <v>5.17374993751949</v>
       </c>
       <c r="M178" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="179">
@@ -8507,7 +8507,7 @@
         <v>4.78399897712766</v>
       </c>
       <c r="M179" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180">
@@ -8597,7 +8597,7 @@
         <v>16.59710630443382</v>
       </c>
       <c r="M181" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="182">
@@ -8642,7 +8642,7 @@
         <v>17.37529350132983</v>
       </c>
       <c r="M182" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183">
@@ -8687,7 +8687,7 @@
         <v>9.407809170262977</v>
       </c>
       <c r="M183" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="184">
@@ -8732,7 +8732,7 @@
         <v>13.77375867999406</v>
       </c>
       <c r="M184" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="185">
@@ -8777,7 +8777,7 @@
         <v>19.1017396202061</v>
       </c>
       <c r="M185" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186">
@@ -8822,7 +8822,7 @@
         <v>17.22113834668766</v>
       </c>
       <c r="M186" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="187">
@@ -8867,7 +8867,7 @@
         <v>19.42597246377308</v>
       </c>
       <c r="M187" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188">
@@ -8912,7 +8912,7 @@
         <v>17.30792318931458</v>
       </c>
       <c r="M188" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="189">
@@ -8957,7 +8957,7 @@
         <v>17.35722496982694</v>
       </c>
       <c r="M189" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="190">
@@ -9002,7 +9002,7 @@
         <v>3.199735113558178</v>
       </c>
       <c r="M190" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191">
@@ -9047,7 +9047,7 @@
         <v>18.93246014436394</v>
       </c>
       <c r="M191" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192">
@@ -9092,7 +9092,7 @@
         <v>12.19683828639811</v>
       </c>
       <c r="M192" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="193">
@@ -9137,7 +9137,7 @@
         <v>19.39946898263721</v>
       </c>
       <c r="M193" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194">
@@ -9227,7 +9227,7 @@
         <v>5.968808350246678</v>
       </c>
       <c r="M195" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="196">
@@ -9272,7 +9272,7 @@
         <v>15.44219556784537</v>
       </c>
       <c r="M196" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="197">
@@ -9362,7 +9362,7 @@
         <v>13.63151559116707</v>
       </c>
       <c r="M198" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="199">
@@ -9407,7 +9407,7 @@
         <v>2.643233174547312</v>
       </c>
       <c r="M199" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200">
@@ -9542,7 +9542,7 @@
         <v>7.28538214081003</v>
       </c>
       <c r="M202" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203">
@@ -9587,7 +9587,7 @@
         <v>10.91871638444413</v>
       </c>
       <c r="M203" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="204">
@@ -9632,7 +9632,7 @@
         <v>7.249949656110957</v>
       </c>
       <c r="M204" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="205">
@@ -9677,7 +9677,7 @@
         <v>5.958653496858183</v>
       </c>
       <c r="M205" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="206">
@@ -9722,7 +9722,7 @@
         <v>5.919314870102077</v>
       </c>
       <c r="M206" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="207">
@@ -9767,7 +9767,7 @@
         <v>5.919272022383033</v>
       </c>
       <c r="M207" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="208">
@@ -9812,7 +9812,7 @@
         <v>4.906091562453753</v>
       </c>
       <c r="M208" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="209">
@@ -9902,7 +9902,7 @@
         <v>4.878077475980008</v>
       </c>
       <c r="M210" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="211">
@@ -9947,7 +9947,7 @@
         <v>6.931646825443361</v>
       </c>
       <c r="M211" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="212">
@@ -9992,7 +9992,7 @@
         <v>11.64180620608664</v>
       </c>
       <c r="M212" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="213">
@@ -10037,7 +10037,7 @@
         <v>8.988660113327935</v>
       </c>
       <c r="M213" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="214">
@@ -10127,7 +10127,7 @@
         <v>9.554028792145651</v>
       </c>
       <c r="M215" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="216">
@@ -10172,7 +10172,7 @@
         <v>11.48301008842029</v>
       </c>
       <c r="M216" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="217">
@@ -10262,7 +10262,7 @@
         <v>9.752384970025961</v>
       </c>
       <c r="M218" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="219">
@@ -10352,7 +10352,7 @@
         <v>2.481670448458028</v>
       </c>
       <c r="M220" t="n">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="221">
@@ -10397,7 +10397,7 @@
         <v>12.90320512198164</v>
       </c>
       <c r="M221" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="222">
@@ -10442,7 +10442,7 @@
         <v>9.002286340894639</v>
       </c>
       <c r="M222" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="223">
@@ -10532,7 +10532,7 @@
         <v>9.151027959567937</v>
       </c>
       <c r="M224" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="225">
@@ -10577,7 +10577,7 @@
         <v>12.80766035999956</v>
       </c>
       <c r="M225" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226">
@@ -10757,7 +10757,7 @@
         <v>13.02515061767352</v>
       </c>
       <c r="M229" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="230">
@@ -10802,7 +10802,7 @@
         <v>12.52284793041677</v>
       </c>
       <c r="M230" t="n">
-        <v>-1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="231">
@@ -10892,7 +10892,7 @@
         <v>8.514242970012022</v>
       </c>
       <c r="M232" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="233">
@@ -10937,7 +10937,7 @@
         <v>8.827392132271425</v>
       </c>
       <c r="M233" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="234">
@@ -11027,7 +11027,7 @@
         <v>12.2766266779734</v>
       </c>
       <c r="M235" t="n">
-        <v>-1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="236">
@@ -11072,7 +11072,7 @@
         <v>12.3276271887088</v>
       </c>
       <c r="M236" t="n">
-        <v>-1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="237">
@@ -11117,7 +11117,7 @@
         <v>12.64272977428586</v>
       </c>
       <c r="M237" t="n">
-        <v>-1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="238">
@@ -11207,7 +11207,7 @@
         <v>12.03496917277258</v>
       </c>
       <c r="M239" t="n">
-        <v>-1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="240">
@@ -11252,7 +11252,7 @@
         <v>16.6882805706964</v>
       </c>
       <c r="M240" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="241">
@@ -11297,7 +11297,7 @@
         <v>12.80766035999956</v>
       </c>
       <c r="M241" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="242">
@@ -11342,7 +11342,7 @@
         <v>16.70483198641336</v>
       </c>
       <c r="M242" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="243">
@@ -11432,7 +11432,7 @@
         <v>12.82239758383004</v>
       </c>
       <c r="M244" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="245">
@@ -11522,7 +11522,7 @@
         <v>8.718923528261175</v>
       </c>
       <c r="M246" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="247">
@@ -11567,7 +11567,7 @@
         <v>11.43268123162775</v>
       </c>
       <c r="M247" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="248">
@@ -11612,7 +11612,7 @@
         <v>12.91404988424169</v>
       </c>
       <c r="M248" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="249">
@@ -11657,7 +11657,7 @@
         <v>16.77922669861905</v>
       </c>
       <c r="M249" t="n">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="250">
@@ -11702,7 +11702,7 @@
         <v>11.56652215442842</v>
       </c>
       <c r="M250" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="251">
@@ -11747,7 +11747,7 @@
         <v>15.35299773823824</v>
       </c>
       <c r="M251" t="n">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252">
@@ -11792,7 +11792,7 @@
         <v>10.94840485125277</v>
       </c>
       <c r="M252" t="n">
-        <v>-1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253">
@@ -11837,7 +11837,7 @@
         <v>9.368343893593007</v>
       </c>
       <c r="M253" t="n">
-        <v>-1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254">
@@ -11882,7 +11882,7 @@
         <v>16.32694376469756</v>
       </c>
       <c r="M254" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="255">
@@ -11972,7 +11972,7 @@
         <v>16.63883174428018</v>
       </c>
       <c r="M256" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="257">
@@ -12017,7 +12017,7 @@
         <v>15.36562906040248</v>
       </c>
       <c r="M257" t="n">
-        <v>-1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="258">
@@ -12062,7 +12062,7 @@
         <v>16.40527630258122</v>
       </c>
       <c r="M258" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="259">
@@ -12107,7 +12107,7 @@
         <v>11.96671300437767</v>
       </c>
       <c r="M259" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="260">
@@ -12152,7 +12152,7 @@
         <v>4.579629413550987</v>
       </c>
       <c r="M260" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="261">
@@ -12197,7 +12197,7 @@
         <v>15.12243428127202</v>
       </c>
       <c r="M261" t="n">
-        <v>-1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="262">
@@ -12242,7 +12242,7 @@
         <v>7.240453708458147</v>
       </c>
       <c r="M262" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="263">
@@ -12287,7 +12287,7 @@
         <v>17.02058047142454</v>
       </c>
       <c r="M263" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="264">
@@ -12332,7 +12332,7 @@
         <v>14.20306027395644</v>
       </c>
       <c r="M264" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="265">
@@ -12377,7 +12377,7 @@
         <v>17.14143722129658</v>
       </c>
       <c r="M265" t="n">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="266">
@@ -12422,7 +12422,7 @@
         <v>8.050682420461499</v>
       </c>
       <c r="M266" t="n">
-        <v>-1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="267">
@@ -12467,7 +12467,7 @@
         <v>1.978643614067414</v>
       </c>
       <c r="M267" t="n">
-        <v>-1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="268">
@@ -12557,7 +12557,7 @@
         <v>11.24986139317193</v>
       </c>
       <c r="M269" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="270">
@@ -12647,7 +12647,7 @@
         <v>8.693253903234602</v>
       </c>
       <c r="M271" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="272">
@@ -12692,7 +12692,7 @@
         <v>3.219952871977855</v>
       </c>
       <c r="M272" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="273">
@@ -12782,7 +12782,7 @@
         <v>1.981204689049601</v>
       </c>
       <c r="M274" t="n">
-        <v>-1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="275">
@@ -12872,7 +12872,7 @@
         <v>14.95432471989742</v>
       </c>
       <c r="M276" t="n">
-        <v>-1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="277">
@@ -12917,7 +12917,7 @@
         <v>14.71758654251575</v>
       </c>
       <c r="M277" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="278">
@@ -13007,7 +13007,7 @@
         <v>11.24986139317193</v>
       </c>
       <c r="M279" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="280">
@@ -13052,7 +13052,7 @@
         <v>6.715537583702573</v>
       </c>
       <c r="M280" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="281">
@@ -13142,7 +13142,7 @@
         <v>12.93819150976966</v>
       </c>
       <c r="M282" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="283">
@@ -13277,7 +13277,7 @@
         <v>13.88297383856522</v>
       </c>
       <c r="M285" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="286">
@@ -13322,7 +13322,7 @@
         <v>15.18264813680766</v>
       </c>
       <c r="M286" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="287">
@@ -13367,7 +13367,7 @@
         <v>15.28837693605419</v>
       </c>
       <c r="M287" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="288">
@@ -13412,7 +13412,7 @@
         <v>13.30117411746803</v>
       </c>
       <c r="M288" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="289">
@@ -13457,7 +13457,7 @@
         <v>14.18768220125647</v>
       </c>
       <c r="M289" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="290">
@@ -13502,7 +13502,7 @@
         <v>13.52199131204341</v>
       </c>
       <c r="M290" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="291">
@@ -13592,7 +13592,7 @@
         <v>14.01523008885324</v>
       </c>
       <c r="M292" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="293">
@@ -13637,7 +13637,7 @@
         <v>12.98775313562033</v>
       </c>
       <c r="M293" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="294">
@@ -13682,7 +13682,7 @@
         <v>14.97122603129322</v>
       </c>
       <c r="M294" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="295">
@@ -13952,7 +13952,7 @@
         <v>12.02096745130799</v>
       </c>
       <c r="M300" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="301">
@@ -13997,7 +13997,7 @@
         <v>12.40103789301073</v>
       </c>
       <c r="M301" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="302">
@@ -14042,7 +14042,7 @@
         <v>12.4405043995686</v>
       </c>
       <c r="M302" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="303">
@@ -14087,7 +14087,7 @@
         <v>13.1904901585329</v>
       </c>
       <c r="M303" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="304">
@@ -14177,7 +14177,7 @@
         <v>13.09745584006222</v>
       </c>
       <c r="M305" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="306">
@@ -14222,7 +14222,7 @@
         <v>22.04377914542178</v>
       </c>
       <c r="M306" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="307">
@@ -14267,7 +14267,7 @@
         <v>13.05073531205924</v>
       </c>
       <c r="M307" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="308">
@@ -14312,7 +14312,7 @@
         <v>12.66040098966057</v>
       </c>
       <c r="M308" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="309">
@@ -14357,7 +14357,7 @@
         <v>2.594298068215804</v>
       </c>
       <c r="M309" t="n">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="310">
@@ -14402,7 +14402,7 @@
         <v>22.43672288623585</v>
       </c>
       <c r="M310" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="311">
@@ -14492,7 +14492,7 @@
         <v>12.5471197022834</v>
       </c>
       <c r="M312" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="313">
@@ -14537,7 +14537,7 @@
         <v>13.32422514764374</v>
       </c>
       <c r="M313" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="314">
@@ -14627,7 +14627,7 @@
         <v>17.52815611126552</v>
       </c>
       <c r="M315" t="n">
-        <v>-1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="316">
@@ -14672,7 +14672,7 @@
         <v>23.33555556315767</v>
       </c>
       <c r="M316" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="317">
@@ -14762,7 +14762,7 @@
         <v>21.87470735411385</v>
       </c>
       <c r="M318" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="319">
@@ -14807,7 +14807,7 @@
         <v>10.42231739280825</v>
       </c>
       <c r="M319" t="n">
-        <v>-1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="320">
@@ -14852,7 +14852,7 @@
         <v>23.16916358703275</v>
       </c>
       <c r="M320" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="321">
@@ -14897,7 +14897,7 @@
         <v>21.91742356744156</v>
       </c>
       <c r="M321" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="322">
@@ -14942,7 +14942,7 @@
         <v>6.548384734551491</v>
       </c>
       <c r="M322" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="323">
@@ -14987,7 +14987,7 @@
         <v>19.22548322620658</v>
       </c>
       <c r="M323" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="324">
@@ -15032,7 +15032,7 @@
         <v>13.19295752226051</v>
       </c>
       <c r="M324" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="325">
@@ -15077,7 +15077,7 @@
         <v>15.93945862727366</v>
       </c>
       <c r="M325" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="326">
@@ -15122,7 +15122,7 @@
         <v>19.36013836521204</v>
       </c>
       <c r="M326" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="327">
@@ -15167,7 +15167,7 @@
         <v>20.5509492362845</v>
       </c>
       <c r="M327" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="328">
@@ -15212,7 +15212,7 @@
         <v>11.15333950152376</v>
       </c>
       <c r="M328" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="329">
@@ -15257,7 +15257,7 @@
         <v>22.06397602212463</v>
       </c>
       <c r="M329" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="330">
@@ -15302,7 +15302,7 @@
         <v>16.98507886139875</v>
       </c>
       <c r="M330" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="331">
@@ -15347,7 +15347,7 @@
         <v>24.95319437921998</v>
       </c>
       <c r="M331" t="n">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="332">
@@ -15392,7 +15392,7 @@
         <v>14.57865962993163</v>
       </c>
       <c r="M332" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="333">
@@ -15437,7 +15437,7 @@
         <v>17.3362938923604</v>
       </c>
       <c r="M333" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="334">
@@ -15482,7 +15482,7 @@
         <v>23.11670152760278</v>
       </c>
       <c r="M334" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="335">
@@ -15527,7 +15527,7 @@
         <v>16.99104984907562</v>
       </c>
       <c r="M335" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="336">
@@ -15572,7 +15572,7 @@
         <v>6.548384734551491</v>
       </c>
       <c r="M336" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="337">
@@ -15617,7 +15617,7 @@
         <v>12.92391063340958</v>
       </c>
       <c r="M337" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="338">
@@ -15662,7 +15662,7 @@
         <v>22.92964470935663</v>
       </c>
       <c r="M338" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="339">
@@ -15707,7 +15707,7 @@
         <v>17.61549969014179</v>
       </c>
       <c r="M339" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="340">
@@ -15752,7 +15752,7 @@
         <v>16.52578913118283</v>
       </c>
       <c r="M340" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="341">
@@ -15797,7 +15797,7 @@
         <v>18.39958035410494</v>
       </c>
       <c r="M341" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="342">
@@ -15842,7 +15842,7 @@
         <v>6.548384734551491</v>
       </c>
       <c r="M342" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="343">
@@ -15887,7 +15887,7 @@
         <v>22.04377914542178</v>
       </c>
       <c r="M343" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="344">
@@ -15932,7 +15932,7 @@
         <v>21.98980202057307</v>
       </c>
       <c r="M344" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="345">
@@ -16022,7 +16022,7 @@
         <v>24.94989495126066</v>
       </c>
       <c r="M346" t="n">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="347">
@@ -16067,7 +16067,7 @@
         <v>17.45153390864669</v>
       </c>
       <c r="M347" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="348">
@@ -16157,7 +16157,7 @@
         <v>8.888406510429581</v>
       </c>
       <c r="M349" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="350">
@@ -16202,7 +16202,7 @@
         <v>21.11250917684484</v>
       </c>
       <c r="M350" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="351">
@@ -16247,7 +16247,7 @@
         <v>19.53155954516656</v>
       </c>
       <c r="M351" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="352">
@@ -16292,7 +16292,7 @@
         <v>14.64202142893701</v>
       </c>
       <c r="M352" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="353">
@@ -16337,7 +16337,7 @@
         <v>13.20557858487986</v>
       </c>
       <c r="M353" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="354">
@@ -16472,7 +16472,7 @@
         <v>9.766849220083168</v>
       </c>
       <c r="M356" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="357">
@@ -16517,7 +16517,7 @@
         <v>14.54254131826587</v>
       </c>
       <c r="M357" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358">
@@ -16697,7 +16697,7 @@
         <v>8.033576411139771</v>
       </c>
       <c r="M361" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -16742,7 +16742,7 @@
         <v>7.831642717013111</v>
       </c>
       <c r="M362" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="363">
@@ -16787,7 +16787,7 @@
         <v>9.984887910763025</v>
       </c>
       <c r="M363" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -16832,7 +16832,7 @@
         <v>4.804170238061213</v>
       </c>
       <c r="M364" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="365">
@@ -16877,7 +16877,7 @@
         <v>4.977766266004728</v>
       </c>
       <c r="M365" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -16922,7 +16922,7 @@
         <v>17.94186049288498</v>
       </c>
       <c r="M366" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="367">
@@ -17012,7 +17012,7 @@
         <v>4.871993186848256</v>
       </c>
       <c r="M368" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="369">
@@ -17057,7 +17057,7 @@
         <v>11.34471671435228</v>
       </c>
       <c r="M369" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="370">
@@ -17102,7 +17102,7 @@
         <v>6.443861910160467</v>
       </c>
       <c r="M370" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371">
@@ -17147,7 +17147,7 @@
         <v>11.50169455465221</v>
       </c>
       <c r="M371" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="372">
@@ -17192,7 +17192,7 @@
         <v>4.885079444660432</v>
       </c>
       <c r="M372" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="373">
@@ -17237,7 +17237,7 @@
         <v>9.766374308693123</v>
       </c>
       <c r="M373" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="374">
@@ -17282,7 +17282,7 @@
         <v>4.220879893739296</v>
       </c>
       <c r="M374" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="375">
@@ -17372,7 +17372,7 @@
         <v>9.559861664786927</v>
       </c>
       <c r="M376" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="377">
@@ -17417,7 +17417,7 @@
         <v>8.266989238371142</v>
       </c>
       <c r="M377" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="378">
@@ -17462,7 +17462,7 @@
         <v>6.586146513301985</v>
       </c>
       <c r="M378" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="379">
@@ -17507,7 +17507,7 @@
         <v>16.5024422203295</v>
       </c>
       <c r="M379" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="380">
@@ -17552,7 +17552,7 @@
         <v>16.50536071035124</v>
       </c>
       <c r="M380" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="381">
@@ -17597,7 +17597,7 @@
         <v>7.846839010528413</v>
       </c>
       <c r="M381" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="382">
@@ -17642,7 +17642,7 @@
         <v>19.00856730396985</v>
       </c>
       <c r="M382" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="383">
@@ -17687,7 +17687,7 @@
         <v>18.04002607262058</v>
       </c>
       <c r="M383" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="384">
@@ -17867,7 +17867,7 @@
         <v>19.60441067249581</v>
       </c>
       <c r="M387" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="388">
@@ -17912,7 +17912,7 @@
         <v>19.39083640098112</v>
       </c>
       <c r="M388" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="389">
@@ -17957,7 +17957,7 @@
         <v>5.908610775639323</v>
       </c>
       <c r="M389" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="390">
@@ -18002,7 +18002,7 @@
         <v>17.22113834668766</v>
       </c>
       <c r="M390" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="391">
@@ -18047,7 +18047,7 @@
         <v>3.258178262208698</v>
       </c>
       <c r="M391" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="392">
@@ -18092,7 +18092,7 @@
         <v>19.15637148604974</v>
       </c>
       <c r="M392" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="393">
@@ -18137,7 +18137,7 @@
         <v>14.01969870569688</v>
       </c>
       <c r="M393" t="n">
-        <v>-1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="394">
@@ -18272,7 +18272,7 @@
         <v>9.456159433327546</v>
       </c>
       <c r="M396" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="397">
@@ -18317,7 +18317,7 @@
         <v>12.56215147724566</v>
       </c>
       <c r="M397" t="n">
-        <v>-1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="398">
@@ -18362,7 +18362,7 @@
         <v>2.420220560075061</v>
       </c>
       <c r="M398" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="399">
@@ -18452,7 +18452,7 @@
         <v>2.391386713377293</v>
       </c>
       <c r="M400" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="401">
@@ -18587,7 +18587,7 @@
         <v>8.219753624401065</v>
       </c>
       <c r="M403" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="404">
@@ -18632,7 +18632,7 @@
         <v>7.681864814261425</v>
       </c>
       <c r="M404" t="n">
-        <v>-1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="405">
@@ -18677,7 +18677,7 @@
         <v>4.711483184395346</v>
       </c>
       <c r="M405" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="406">
@@ -18722,7 +18722,7 @@
         <v>3.219952871977855</v>
       </c>
       <c r="M406" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="407">
@@ -18767,7 +18767,7 @@
         <v>2.086918638279983</v>
       </c>
       <c r="M407" t="n">
-        <v>-1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="408">
@@ -18812,7 +18812,7 @@
         <v>10.4621804978749</v>
       </c>
       <c r="M408" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="409">
@@ -18857,7 +18857,7 @@
         <v>8.275990312815297</v>
       </c>
       <c r="M409" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="410">
@@ -18947,7 +18947,7 @@
         <v>2.060312821935136</v>
       </c>
       <c r="M411" t="n">
-        <v>-1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="412">
@@ -19037,7 +19037,7 @@
         <v>8.287583594300528</v>
       </c>
       <c r="M413" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="414">
@@ -19082,7 +19082,7 @@
         <v>14.66779207324918</v>
       </c>
       <c r="M414" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="415">
@@ -19127,7 +19127,7 @@
         <v>8.565681006359544</v>
       </c>
       <c r="M415" t="n">
-        <v>-1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="416">
@@ -19172,7 +19172,7 @@
         <v>8.5712917021406</v>
       </c>
       <c r="M416" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="417">
@@ -19217,7 +19217,7 @@
         <v>14.22744473788379</v>
       </c>
       <c r="M417" t="n">
-        <v>-1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="418">
@@ -19262,7 +19262,7 @@
         <v>15.16692133534825</v>
       </c>
       <c r="M418" t="n">
-        <v>-1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="419">
@@ -19307,7 +19307,7 @@
         <v>11.86889216605664</v>
       </c>
       <c r="M419" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="420">
@@ -19352,7 +19352,7 @@
         <v>14.3312657029268</v>
       </c>
       <c r="M420" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="421">
@@ -19442,7 +19442,7 @@
         <v>7.637209316080689</v>
       </c>
       <c r="M422" t="n">
-        <v>-1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="423">
@@ -19532,7 +19532,7 @@
         <v>15.46599163369535</v>
       </c>
       <c r="M424" t="n">
-        <v>-1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="425">
@@ -19577,7 +19577,7 @@
         <v>13.23063276903278</v>
       </c>
       <c r="M425" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="426">
@@ -19622,7 +19622,7 @@
         <v>4.833750966019858</v>
       </c>
       <c r="M426" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="427">
@@ -19802,7 +19802,7 @@
         <v>13.23824781908554</v>
       </c>
       <c r="M430" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="431">
@@ -19892,7 +19892,7 @@
         <v>13.22487225925859</v>
       </c>
       <c r="M432" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="433">
@@ -19937,7 +19937,7 @@
         <v>24.28282443658204</v>
       </c>
       <c r="M433" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="434">
@@ -19982,7 +19982,7 @@
         <v>23.11670152760278</v>
       </c>
       <c r="M434" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="435">
@@ -20027,7 +20027,7 @@
         <v>24.6259112756032</v>
       </c>
       <c r="M435" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="436">
@@ -20072,7 +20072,7 @@
         <v>9.383019316004216</v>
       </c>
       <c r="M436" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="437">
@@ -20117,7 +20117,7 @@
         <v>9.612450930639151</v>
       </c>
       <c r="M437" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="438">
@@ -20207,7 +20207,7 @@
         <v>9.988743438022551</v>
       </c>
       <c r="M439" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="440">
@@ -20252,7 +20252,7 @@
         <v>9.749873220624192</v>
       </c>
       <c r="M440" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="441">
@@ -20477,7 +20477,7 @@
         <v>9.728670971337063</v>
       </c>
       <c r="M445" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -20522,7 +20522,7 @@
         <v>4.971508023211967</v>
       </c>
       <c r="M446" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="447">
@@ -20567,7 +20567,7 @@
         <v>5.048511079604322</v>
       </c>
       <c r="M447" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -20612,7 +20612,7 @@
         <v>6.024336619393846</v>
       </c>
       <c r="M448" t="n">
-        <v>-1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="449">
@@ -20792,7 +20792,7 @@
         <v>9.502508411766154</v>
       </c>
       <c r="M452" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="453">
@@ -20837,7 +20837,7 @@
         <v>7.17082608410644</v>
       </c>
       <c r="M453" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="454">
@@ -20882,7 +20882,7 @@
         <v>3.075398338755994</v>
       </c>
       <c r="M454" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="455">
@@ -20927,7 +20927,7 @@
         <v>4.18494723648154</v>
       </c>
       <c r="M455" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="456">
@@ -21017,7 +21017,7 @@
         <v>7.772581082177872</v>
       </c>
       <c r="M457" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="458">
@@ -21062,7 +21062,7 @@
         <v>9.554028792145651</v>
       </c>
       <c r="M458" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="459">
@@ -21107,7 +21107,7 @@
         <v>9.064093194664316</v>
       </c>
       <c r="M459" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="460">
@@ -21152,7 +21152,7 @@
         <v>5.759504177118357</v>
       </c>
       <c r="M460" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="461">
@@ -21242,7 +21242,7 @@
         <v>10.74102540109709</v>
       </c>
       <c r="M462" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="463">
@@ -21287,7 +21287,7 @@
         <v>15.48883166173227</v>
       </c>
       <c r="M463" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="464">
@@ -21332,7 +21332,7 @@
         <v>15.70281236699595</v>
       </c>
       <c r="M464" t="n">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="465">
@@ -21377,7 +21377,7 @@
         <v>5.361770101891344</v>
       </c>
       <c r="M465" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="466">
@@ -21422,7 +21422,7 @@
         <v>5.739033950218489</v>
       </c>
       <c r="M466" t="n">
-        <v>-1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="467">
@@ -21467,7 +21467,7 @@
         <v>6.871733923895224</v>
       </c>
       <c r="M467" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="468">
@@ -21512,7 +21512,7 @@
         <v>10.65974451488066</v>
       </c>
       <c r="M468" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="469">
@@ -21602,7 +21602,7 @@
         <v>19.58059487405156</v>
       </c>
       <c r="M470" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="471">
@@ -21737,7 +21737,7 @@
         <v>19.10021414992693</v>
       </c>
       <c r="M473" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="474">
@@ -21827,7 +21827,7 @@
         <v>10.62345545286426</v>
       </c>
       <c r="M475" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="476">
@@ -21872,7 +21872,7 @@
         <v>19.38778568959596</v>
       </c>
       <c r="M476" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="477">
@@ -21962,7 +21962,7 @@
         <v>10.84658345836574</v>
       </c>
       <c r="M478" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="479">
@@ -22007,7 +22007,7 @@
         <v>17.93604608031096</v>
       </c>
       <c r="M479" t="n">
-        <v>-1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="480">
@@ -22097,7 +22097,7 @@
         <v>11.2372636185506</v>
       </c>
       <c r="M481" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="482">
@@ -22142,7 +22142,7 @@
         <v>20.8393402443455</v>
       </c>
       <c r="M482" t="n">
-        <v>-1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="483">
@@ -22187,7 +22187,7 @@
         <v>15.09719868186312</v>
       </c>
       <c r="M483" t="n">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="484">
@@ -22277,7 +22277,7 @@
         <v>20.26888505717645</v>
       </c>
       <c r="M485" t="n">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="486">
@@ -22322,7 +22322,7 @@
         <v>15.26563227475723</v>
       </c>
       <c r="M486" t="n">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="487">
@@ -22547,7 +22547,7 @@
         <v>20.23281826719131</v>
       </c>
       <c r="M491" t="n">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="492">
@@ -22727,7 +22727,7 @@
         <v>11.33843056446223</v>
       </c>
       <c r="M495" t="n">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="496">
@@ -22772,7 +22772,7 @@
         <v>3.597491796759324</v>
       </c>
       <c r="M496" t="n">
-        <v>-1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="497">
@@ -22817,7 +22817,7 @@
         <v>3.573264266669096</v>
       </c>
       <c r="M497" t="n">
-        <v>-1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="498">
@@ -22952,7 +22952,7 @@
         <v>7.522311565464934</v>
       </c>
       <c r="M500" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="501">
@@ -23087,7 +23087,7 @@
         <v>8.265943379211421</v>
       </c>
       <c r="M503" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="504">
@@ -23132,7 +23132,7 @@
         <v>8.072485394309671</v>
       </c>
       <c r="M504" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="505">
@@ -23222,7 +23222,7 @@
         <v>11.45835918210472</v>
       </c>
       <c r="M506" t="n">
-        <v>-1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="507">
@@ -23402,7 +23402,7 @@
         <v>8.915863825358592</v>
       </c>
       <c r="M510" t="n">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="511">
@@ -23447,7 +23447,7 @@
         <v>3.958121073067594</v>
       </c>
       <c r="M511" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="512">
@@ -23537,7 +23537,7 @@
         <v>2.057142510384362</v>
       </c>
       <c r="M513" t="n">
-        <v>-1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="514">
@@ -23582,7 +23582,7 @@
         <v>6.657986574997414</v>
       </c>
       <c r="M514" t="n">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="515">
@@ -23672,7 +23672,7 @@
         <v>3.935106220716092</v>
       </c>
       <c r="M516" t="n">
-        <v>-1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="517">
@@ -23717,7 +23717,7 @@
         <v>6.515558127650757</v>
       </c>
       <c r="M517" t="n">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="518">
@@ -23807,7 +23807,7 @@
         <v>7.226461460725833</v>
       </c>
       <c r="M519" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="520">
@@ -23897,7 +23897,7 @@
         <v>11.66184108538359</v>
       </c>
       <c r="M521" t="n">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="522">
@@ -23942,7 +23942,7 @@
         <v>11.69558270985076</v>
       </c>
       <c r="M522" t="n">
-        <v>-1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="523">
@@ -23987,7 +23987,7 @@
         <v>4.608837673598389</v>
       </c>
       <c r="M523" t="n">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="524">
@@ -24077,7 +24077,7 @@
         <v>8.581083740312426</v>
       </c>
       <c r="M525" t="n">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="526">
@@ -24167,7 +24167,7 @@
         <v>9.726010461888789</v>
       </c>
       <c r="M527" t="n">
-        <v>-1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="528">
@@ -24257,7 +24257,7 @@
         <v>12.36059569171651</v>
       </c>
       <c r="M529" t="n">
-        <v>-1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="530">
@@ -24347,7 +24347,7 @@
         <v>9.289114863321338</v>
       </c>
       <c r="M531" t="n">
-        <v>-1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="532">
@@ -24437,7 +24437,7 @@
         <v>11.58610053391166</v>
       </c>
       <c r="M533" t="n">
-        <v>-1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="534">
@@ -24482,7 +24482,7 @@
         <v>6.520841850958673</v>
       </c>
       <c r="M534" t="n">
-        <v>-1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="535">
@@ -24527,7 +24527,7 @@
         <v>7.355224697423668</v>
       </c>
       <c r="M535" t="n">
-        <v>-1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="536">
@@ -24572,7 +24572,7 @@
         <v>11.23860308289662</v>
       </c>
       <c r="M536" t="n">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="537">
@@ -24617,7 +24617,7 @@
         <v>5.85410935383375</v>
       </c>
       <c r="M537" t="n">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="538">
@@ -24662,7 +24662,7 @@
         <v>6.877426194186606</v>
       </c>
       <c r="M538" t="n">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="539">
@@ -24707,7 +24707,7 @@
         <v>9.797853971444304</v>
       </c>
       <c r="M539" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="540">
@@ -24752,7 +24752,7 @@
         <v>11.96866863223208</v>
       </c>
       <c r="M540" t="n">
-        <v>-1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="541">
@@ -24887,7 +24887,7 @@
         <v>5.659801711725463</v>
       </c>
       <c r="M543" t="n">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="544">
@@ -24932,7 +24932,7 @@
         <v>7.446091065763984</v>
       </c>
       <c r="M544" t="n">
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="545">
@@ -24977,7 +24977,7 @@
         <v>2.049441195044909</v>
       </c>
       <c r="M545" t="n">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="546">
@@ -25022,7 +25022,7 @@
         <v>7.521808371125047</v>
       </c>
       <c r="M546" t="n">
-        <v>-1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="547">
@@ -25157,7 +25157,7 @@
         <v>4.242083902720908</v>
       </c>
       <c r="M549" t="n">
-        <v>-1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="550">
@@ -25202,7 +25202,7 @@
         <v>5.534408665180672</v>
       </c>
       <c r="M550" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="551">
@@ -25247,7 +25247,7 @@
         <v>3.635630751973374</v>
       </c>
       <c r="M551" t="n">
-        <v>-1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="552">
@@ -25292,7 +25292,7 @@
         <v>7.52724992213141</v>
       </c>
       <c r="M552" t="n">
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="553">
@@ -25337,7 +25337,7 @@
         <v>5.790748005713663</v>
       </c>
       <c r="M553" t="n">
-        <v>-1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="554">
@@ -25427,7 +25427,7 @@
         <v>8.338832998183523</v>
       </c>
       <c r="M555" t="n">
-        <v>-1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="556">
@@ -25472,7 +25472,7 @@
         <v>7.163293926014147</v>
       </c>
       <c r="M556" t="n">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="557">
@@ -25562,7 +25562,7 @@
         <v>7.663071305281001</v>
       </c>
       <c r="M558" t="n">
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="559">
@@ -25697,7 +25697,7 @@
         <v>11.71696948201707</v>
       </c>
       <c r="M561" t="n">
-        <v>-1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="562">
@@ -25742,7 +25742,7 @@
         <v>3.631470895953924</v>
       </c>
       <c r="M562" t="n">
-        <v>102</v>
+        <v>136</v>
       </c>
     </row>
     <row r="563">
@@ -26012,7 +26012,7 @@
         <v>5.534408665180672</v>
       </c>
       <c r="M568" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="569">
@@ -26057,7 +26057,7 @@
         <v>9.519252123399431</v>
       </c>
       <c r="M569" t="n">
-        <v>103</v>
+        <v>137</v>
       </c>
     </row>
     <row r="570">
@@ -26102,7 +26102,7 @@
         <v>4.712968159269537</v>
       </c>
       <c r="M570" t="n">
-        <v>-1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="571">
@@ -26147,7 +26147,7 @@
         <v>13.2030883963574</v>
       </c>
       <c r="M571" t="n">
-        <v>104</v>
+        <v>135</v>
       </c>
     </row>
     <row r="572">
@@ -26282,7 +26282,7 @@
         <v>12.8659265689365</v>
       </c>
       <c r="M574" t="n">
-        <v>104</v>
+        <v>135</v>
       </c>
     </row>
     <row r="575">
@@ -26372,7 +26372,7 @@
         <v>8.710598812977794</v>
       </c>
       <c r="M576" t="n">
-        <v>-1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="577">
@@ -26417,7 +26417,7 @@
         <v>10.10976835900616</v>
       </c>
       <c r="M577" t="n">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="578">
@@ -26462,7 +26462,7 @@
         <v>13.41331778609614</v>
       </c>
       <c r="M578" t="n">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="579">
@@ -26507,7 +26507,7 @@
         <v>4.516349877748392</v>
       </c>
       <c r="M579" t="n">
-        <v>-1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="580">
@@ -26597,7 +26597,7 @@
         <v>10.10976835900616</v>
       </c>
       <c r="M581" t="n">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="582">
@@ -26687,7 +26687,7 @@
         <v>15.58273731866232</v>
       </c>
       <c r="M583" t="n">
-        <v>-1</v>
+        <v>140</v>
       </c>
     </row>
     <row r="584">
@@ -26732,7 +26732,7 @@
         <v>13.85014392515512</v>
       </c>
       <c r="M584" t="n">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="585">
@@ -26777,7 +26777,7 @@
         <v>4.39570192389374</v>
       </c>
       <c r="M585" t="n">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="586">
@@ -27047,7 +27047,7 @@
         <v>4.61387549008441</v>
       </c>
       <c r="M591" t="n">
-        <v>-1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="592">
@@ -27092,7 +27092,7 @@
         <v>15.07551680497576</v>
       </c>
       <c r="M592" t="n">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="593">
@@ -27137,7 +27137,7 @@
         <v>16.20032372055249</v>
       </c>
       <c r="M593" t="n">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="594">
@@ -27182,7 +27182,7 @@
         <v>16.61390275745218</v>
       </c>
       <c r="M594" t="n">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="595">
@@ -27362,7 +27362,7 @@
         <v>19.50066670410034</v>
       </c>
       <c r="M598" t="n">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="599">
@@ -27407,7 +27407,7 @@
         <v>19.28045723227053</v>
       </c>
       <c r="M599" t="n">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="600">
@@ -27452,7 +27452,7 @@
         <v>9.801346678811168</v>
       </c>
       <c r="M600" t="n">
-        <v>-1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="601">
@@ -27542,7 +27542,7 @@
         <v>10.89986720069862</v>
       </c>
       <c r="M602" t="n">
-        <v>-1</v>
+        <v>145</v>
       </c>
     </row>
     <row r="603">
@@ -27587,7 +27587,7 @@
         <v>20.19382711447886</v>
       </c>
       <c r="M603" t="n">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="604">
@@ -27632,7 +27632,7 @@
         <v>16.9734656397444</v>
       </c>
       <c r="M604" t="n">
-        <v>-1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="605">
@@ -27722,7 +27722,7 @@
         <v>17.4851505539551</v>
       </c>
       <c r="M606" t="n">
-        <v>-1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="607">
@@ -27767,7 +27767,7 @@
         <v>18.60331596004014</v>
       </c>
       <c r="M607" t="n">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="608">
@@ -27812,7 +27812,7 @@
         <v>9.106477572220392</v>
       </c>
       <c r="M608" t="n">
-        <v>-1</v>
+        <v>145</v>
       </c>
     </row>
     <row r="609">
@@ -27857,7 +27857,7 @@
         <v>17.2387628539131</v>
       </c>
       <c r="M609" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="610">
@@ -27902,7 +27902,7 @@
         <v>19.13159616380231</v>
       </c>
       <c r="M610" t="n">
-        <v>-1</v>
+        <v>147</v>
       </c>
     </row>
     <row r="611">
@@ -27947,7 +27947,7 @@
         <v>8.695403446135845</v>
       </c>
       <c r="M611" t="n">
-        <v>-1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="612">
@@ -27992,7 +27992,7 @@
         <v>19.63166183584702</v>
       </c>
       <c r="M612" t="n">
-        <v>-1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="613">
@@ -28082,7 +28082,7 @@
         <v>7.462486526276721</v>
       </c>
       <c r="M614" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="615">
@@ -28127,7 +28127,7 @@
         <v>14.04930392271584</v>
       </c>
       <c r="M615" t="n">
-        <v>-1</v>
+        <v>148</v>
       </c>
     </row>
     <row r="616">
@@ -28262,7 +28262,7 @@
         <v>13.92831198264117</v>
       </c>
       <c r="M618" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="619">
@@ -28307,7 +28307,7 @@
         <v>6.775414557303937</v>
       </c>
       <c r="M619" t="n">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="620">
@@ -28442,7 +28442,7 @@
         <v>3.746973397641087</v>
       </c>
       <c r="M622" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="623">
@@ -28667,7 +28667,7 @@
         <v>5.452050243458428</v>
       </c>
       <c r="M627" t="n">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="628">
@@ -28712,7 +28712,7 @@
         <v>4.908331393272843</v>
       </c>
       <c r="M628" t="n">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="629">
@@ -28757,7 +28757,7 @@
         <v>8.581083740312426</v>
       </c>
       <c r="M629" t="n">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="630">
@@ -28847,7 +28847,7 @@
         <v>8.686516389566791</v>
       </c>
       <c r="M631" t="n">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="632">
@@ -28892,7 +28892,7 @@
         <v>6.81989200065046</v>
       </c>
       <c r="M632" t="n">
-        <v>-1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="633">
@@ -28937,7 +28937,7 @@
         <v>5.766503832618368</v>
       </c>
       <c r="M633" t="n">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="634">
@@ -28982,7 +28982,7 @@
         <v>11.73752055767912</v>
       </c>
       <c r="M634" t="n">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="635">
@@ -29027,7 +29027,7 @@
         <v>2.093308390153436</v>
       </c>
       <c r="M635" t="n">
-        <v>-1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="636">
@@ -29072,7 +29072,7 @@
         <v>4.249991463494538</v>
       </c>
       <c r="M636" t="n">
-        <v>-1</v>
+        <v>153</v>
       </c>
     </row>
     <row r="637">
@@ -29207,7 +29207,7 @@
         <v>11.5098338753695</v>
       </c>
       <c r="M639" t="n">
-        <v>113</v>
+        <v>154</v>
       </c>
     </row>
     <row r="640">
@@ -29252,7 +29252,7 @@
         <v>6.313103446048132</v>
       </c>
       <c r="M640" t="n">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="641">
@@ -29387,7 +29387,7 @@
         <v>2.712142910458495</v>
       </c>
       <c r="M643" t="n">
-        <v>115</v>
+        <v>156</v>
       </c>
     </row>
     <row r="644">
@@ -29432,7 +29432,7 @@
         <v>4.133705895472959</v>
       </c>
       <c r="M644" t="n">
-        <v>-1</v>
+        <v>157</v>
       </c>
     </row>
     <row r="645">
@@ -29567,7 +29567,7 @@
         <v>11.4833114412791</v>
       </c>
       <c r="M647" t="n">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="648">
@@ -29657,7 +29657,7 @@
         <v>9.724046542854035</v>
       </c>
       <c r="M649" t="n">
-        <v>116</v>
+        <v>158</v>
       </c>
     </row>
     <row r="650">
@@ -29702,7 +29702,7 @@
         <v>7.88838157082193</v>
       </c>
       <c r="M650" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="651">
@@ -29747,7 +29747,7 @@
         <v>10.67528845541998</v>
       </c>
       <c r="M651" t="n">
-        <v>-1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="652">
@@ -29792,7 +29792,7 @@
         <v>9.803032959699982</v>
       </c>
       <c r="M652" t="n">
-        <v>-1</v>
+        <v>158</v>
       </c>
     </row>
     <row r="653">
@@ -29837,7 +29837,7 @@
         <v>8.064444045022858</v>
       </c>
       <c r="M653" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="654">
@@ -29882,7 +29882,7 @@
         <v>10.25495488162636</v>
       </c>
       <c r="M654" t="n">
-        <v>116</v>
+        <v>158</v>
       </c>
     </row>
     <row r="655">
@@ -29927,7 +29927,7 @@
         <v>3.537262966300693</v>
       </c>
       <c r="M655" t="n">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="656">
@@ -29972,7 +29972,7 @@
         <v>4.39570192389374</v>
       </c>
       <c r="M656" t="n">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="657">
@@ -30062,7 +30062,7 @@
         <v>5.411097273210433</v>
       </c>
       <c r="M658" t="n">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="659">
@@ -30197,7 +30197,7 @@
         <v>3.820308728226857</v>
       </c>
       <c r="M661" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="662">
@@ -30242,7 +30242,7 @@
         <v>3.820308728226857</v>
       </c>
       <c r="M662" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="663">
@@ -30287,7 +30287,7 @@
         <v>2.737705737567176</v>
       </c>
       <c r="M663" t="n">
-        <v>-1</v>
+        <v>161</v>
       </c>
     </row>
     <row r="664">
@@ -30332,7 +30332,7 @@
         <v>13.05105574458726</v>
       </c>
       <c r="M664" t="n">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="665">
@@ -30692,7 +30692,7 @@
         <v>2.190477968592205</v>
       </c>
       <c r="M672" t="n">
-        <v>122</v>
+        <v>162</v>
       </c>
     </row>
     <row r="673">
@@ -30737,7 +30737,7 @@
         <v>3.525601256683797</v>
       </c>
       <c r="M673" t="n">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="674">
@@ -30782,7 +30782,7 @@
         <v>6.696858406913864</v>
       </c>
       <c r="M674" t="n">
-        <v>123</v>
+        <v>163</v>
       </c>
     </row>
     <row r="675">
@@ -30827,7 +30827,7 @@
         <v>5.395646297057756</v>
       </c>
       <c r="M675" t="n">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="676">
@@ -30872,7 +30872,7 @@
         <v>5.534408665180672</v>
       </c>
       <c r="M676" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="677">
@@ -30917,7 +30917,7 @@
         <v>9.30263413140341</v>
       </c>
       <c r="M677" t="n">
-        <v>-1</v>
+        <v>125</v>
       </c>
     </row>
     <row r="678">
@@ -30962,7 +30962,7 @@
         <v>4.110844876925666</v>
       </c>
       <c r="M678" t="n">
-        <v>124</v>
+        <v>164</v>
       </c>
     </row>
     <row r="679">
@@ -31097,7 +31097,7 @@
         <v>6.999887095467948</v>
       </c>
       <c r="M681" t="n">
-        <v>-1</v>
+        <v>134</v>
       </c>
     </row>
     <row r="682">
@@ -31142,7 +31142,7 @@
         <v>9.886188265078994</v>
       </c>
       <c r="M682" t="n">
-        <v>-1</v>
+        <v>125</v>
       </c>
     </row>
     <row r="683">
@@ -31187,7 +31187,7 @@
         <v>9.571664012867526</v>
       </c>
       <c r="M683" t="n">
-        <v>-1</v>
+        <v>125</v>
       </c>
     </row>
     <row r="684">
@@ -31232,7 +31232,7 @@
         <v>6.696858406913864</v>
       </c>
       <c r="M684" t="n">
-        <v>123</v>
+        <v>163</v>
       </c>
     </row>
     <row r="685">
@@ -31277,7 +31277,7 @@
         <v>9.587252336709906</v>
       </c>
       <c r="M685" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="686">
@@ -31502,7 +31502,7 @@
         <v>7.482843162397909</v>
       </c>
       <c r="M690" t="n">
-        <v>-1</v>
+        <v>165</v>
       </c>
     </row>
     <row r="691">
@@ -31547,7 +31547,7 @@
         <v>3.240648913421487</v>
       </c>
       <c r="M691" t="n">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="692">
@@ -31592,7 +31592,7 @@
         <v>4.110844876925666</v>
       </c>
       <c r="M692" t="n">
-        <v>124</v>
+        <v>164</v>
       </c>
     </row>
     <row r="693">
@@ -31637,7 +31637,7 @@
         <v>6.672721824900482</v>
       </c>
       <c r="M693" t="n">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="694">
@@ -31682,7 +31682,7 @@
         <v>19.17740462984851</v>
       </c>
       <c r="M694" t="n">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="695">
@@ -31907,7 +31907,7 @@
         <v>11.49619247326308</v>
       </c>
       <c r="M699" t="n">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="700">
@@ -31952,7 +31952,7 @@
         <v>13.51859191559322</v>
       </c>
       <c r="M700" t="n">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="701">
@@ -31997,7 +31997,7 @@
         <v>6.760583960704357</v>
       </c>
       <c r="M701" t="n">
-        <v>-1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="702">
@@ -32042,7 +32042,7 @@
         <v>6.693416700099425</v>
       </c>
       <c r="M702" t="n">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="703">
@@ -32087,7 +32087,7 @@
         <v>7.826477531739848</v>
       </c>
       <c r="M703" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="704">
@@ -32132,7 +32132,7 @@
         <v>5.452050243458428</v>
       </c>
       <c r="M704" t="n">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="705">
@@ -32222,7 +32222,7 @@
         <v>5.85247841887017</v>
       </c>
       <c r="M706" t="n">
-        <v>127</v>
+        <v>168</v>
       </c>
     </row>
     <row r="707">
@@ -32267,7 +32267,7 @@
         <v>3.856766162697022</v>
       </c>
       <c r="M707" t="n">
-        <v>-1</v>
+        <v>153</v>
       </c>
     </row>
     <row r="708">
@@ -32312,7 +32312,7 @@
         <v>5.227113547977019</v>
       </c>
       <c r="M708" t="n">
-        <v>-1</v>
+        <v>169</v>
       </c>
     </row>
     <row r="709">
@@ -32402,7 +32402,7 @@
         <v>6.763147575277014</v>
       </c>
       <c r="M710" t="n">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="711">
@@ -32582,7 +32582,7 @@
         <v>4.200219241413576</v>
       </c>
       <c r="M714" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="715">
@@ -32627,7 +32627,7 @@
         <v>6.524000358315975</v>
       </c>
       <c r="M715" t="n">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="716">
@@ -32717,7 +32717,7 @@
         <v>3.623510218606532</v>
       </c>
       <c r="M717" t="n">
-        <v>-1</v>
+        <v>170</v>
       </c>
     </row>
     <row r="718">
@@ -32762,7 +32762,7 @@
         <v>5.766503832618368</v>
       </c>
       <c r="M718" t="n">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="719">
@@ -32807,7 +32807,7 @@
         <v>4.437161573238453</v>
       </c>
       <c r="M719" t="n">
-        <v>-1</v>
+        <v>157</v>
       </c>
     </row>
     <row r="720">
@@ -32942,7 +32942,7 @@
         <v>3.338834154999304</v>
       </c>
       <c r="M722" t="n">
-        <v>-1</v>
+        <v>170</v>
       </c>
     </row>
     <row r="723">
@@ -33032,7 +33032,7 @@
         <v>5.401421226966684</v>
       </c>
       <c r="M724" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="725">
@@ -33077,7 +33077,7 @@
         <v>5.85247841887017</v>
       </c>
       <c r="M725" t="n">
-        <v>127</v>
+        <v>168</v>
       </c>
     </row>
     <row r="726">
@@ -33122,7 +33122,7 @@
         <v>2.712142910458495</v>
       </c>
       <c r="M726" t="n">
-        <v>115</v>
+        <v>156</v>
       </c>
     </row>
     <row r="727">
@@ -33212,7 +33212,7 @@
         <v>3.814733180168908</v>
       </c>
       <c r="M728" t="n">
-        <v>-1</v>
+        <v>171</v>
       </c>
     </row>
     <row r="729">
@@ -33302,7 +33302,7 @@
         <v>5.436635598029323</v>
       </c>
       <c r="M730" t="n">
-        <v>-1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="731">
@@ -33437,7 +33437,7 @@
         <v>9.896143494382176</v>
       </c>
       <c r="M733" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="734">
@@ -33527,7 +33527,7 @@
         <v>2.853495274616477</v>
       </c>
       <c r="M735" t="n">
-        <v>-1</v>
+        <v>161</v>
       </c>
     </row>
     <row r="736">
@@ -33572,7 +33572,7 @@
         <v>3.108962753449402</v>
       </c>
       <c r="M736" t="n">
-        <v>-1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="737">
@@ -33662,7 +33662,7 @@
         <v>2.046919752547545</v>
       </c>
       <c r="M738" t="n">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="739">
@@ -33707,7 +33707,7 @@
         <v>6.998836725003491</v>
       </c>
       <c r="M739" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="740">
@@ -33752,7 +33752,7 @@
         <v>8.739823190571528</v>
       </c>
       <c r="M740" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="741">
@@ -33797,7 +33797,7 @@
         <v>9.151676919678867</v>
       </c>
       <c r="M741" t="n">
-        <v>-1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="742">
@@ -33842,7 +33842,7 @@
         <v>6.524000358315975</v>
       </c>
       <c r="M742" t="n">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="743">
@@ -33932,7 +33932,7 @@
         <v>6.877426194186606</v>
       </c>
       <c r="M744" t="n">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="745">
@@ -34112,7 +34112,7 @@
         <v>6.524000358315975</v>
       </c>
       <c r="M748" t="n">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="749">
@@ -34157,7 +34157,7 @@
         <v>4.205696073819992</v>
       </c>
       <c r="M749" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="750">
@@ -34337,7 +34337,7 @@
         <v>8.921313555537029</v>
       </c>
       <c r="M753" t="n">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="754">
@@ -34427,7 +34427,7 @@
         <v>10.83441710531135</v>
       </c>
       <c r="M755" t="n">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="756">
@@ -34472,7 +34472,7 @@
         <v>7.740897756222186</v>
       </c>
       <c r="M756" t="n">
-        <v>-1</v>
+        <v>165</v>
       </c>
     </row>
     <row r="757">
@@ -34517,7 +34517,7 @@
         <v>6.079379048223643</v>
       </c>
       <c r="M757" t="n">
-        <v>-1</v>
+        <v>168</v>
       </c>
     </row>
     <row r="758">
@@ -34607,7 +34607,7 @@
         <v>4.127844345529658</v>
       </c>
       <c r="M759" t="n">
-        <v>124</v>
+        <v>164</v>
       </c>
     </row>
     <row r="760">
@@ -34742,7 +34742,7 @@
         <v>5.494269319384694</v>
       </c>
       <c r="M762" t="n">
-        <v>-1</v>
+        <v>169</v>
       </c>
     </row>
     <row r="763">
@@ -34787,7 +34787,7 @@
         <v>10.48306528773833</v>
       </c>
       <c r="M763" t="n">
-        <v>-1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="764">
@@ -34832,7 +34832,7 @@
         <v>3.408731432993059</v>
       </c>
       <c r="M764" t="n">
-        <v>-1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="765">
@@ -35147,7 +35147,7 @@
         <v>11.33242501761228</v>
       </c>
       <c r="M771" t="n">
-        <v>113</v>
+        <v>154</v>
       </c>
     </row>
     <row r="772">
@@ -35372,7 +35372,7 @@
         <v>7.766164325063502</v>
       </c>
       <c r="M776" t="n">
-        <v>-1</v>
+        <v>134</v>
       </c>
     </row>
     <row r="777">
@@ -35462,7 +35462,7 @@
         <v>3.613827460086673</v>
       </c>
       <c r="M778" t="n">
-        <v>102</v>
+        <v>136</v>
       </c>
     </row>
     <row r="779">
@@ -35507,7 +35507,7 @@
         <v>3.737420766393175</v>
       </c>
       <c r="M779" t="n">
-        <v>130</v>
+        <v>172</v>
       </c>
     </row>
     <row r="780">
@@ -35552,7 +35552,7 @@
         <v>3.796774917817648</v>
       </c>
       <c r="M780" t="n">
-        <v>-1</v>
+        <v>171</v>
       </c>
     </row>
     <row r="781">
@@ -35642,7 +35642,7 @@
         <v>2.258737290395424</v>
       </c>
       <c r="M782" t="n">
-        <v>-1</v>
+        <v>173</v>
       </c>
     </row>
     <row r="783">
@@ -35687,7 +35687,7 @@
         <v>5.576224775170665</v>
       </c>
       <c r="M783" t="n">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="784">
@@ -35732,7 +35732,7 @@
         <v>2.442443713319669</v>
       </c>
       <c r="M784" t="n">
-        <v>131</v>
+        <v>174</v>
       </c>
     </row>
     <row r="785">
@@ -35822,7 +35822,7 @@
         <v>10.32821185198103</v>
       </c>
       <c r="M786" t="n">
-        <v>-1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="787">
@@ -36002,7 +36002,7 @@
         <v>8.548997256630294</v>
       </c>
       <c r="M790" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="791">
@@ -36047,7 +36047,7 @@
         <v>3.190649200426998</v>
       </c>
       <c r="M791" t="n">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="792">
@@ -36092,7 +36092,7 @@
         <v>10.12593863861266</v>
       </c>
       <c r="M792" t="n">
-        <v>-1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="793">
@@ -36137,7 +36137,7 @@
         <v>13.95270296805672</v>
       </c>
       <c r="M793" t="n">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="794">
@@ -36182,7 +36182,7 @@
         <v>9.032090627153273</v>
       </c>
       <c r="M794" t="n">
-        <v>-1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="795">
@@ -36227,7 +36227,7 @@
         <v>3.218092365668051</v>
       </c>
       <c r="M795" t="n">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="796">
@@ -36272,7 +36272,7 @@
         <v>2.461900995562031</v>
       </c>
       <c r="M796" t="n">
-        <v>131</v>
+        <v>174</v>
       </c>
     </row>
     <row r="797">
@@ -36317,7 +36317,7 @@
         <v>7.747887665348246</v>
       </c>
       <c r="M797" t="n">
-        <v>132</v>
+        <v>175</v>
       </c>
     </row>
     <row r="798">
@@ -36407,7 +36407,7 @@
         <v>3.764691793041584</v>
       </c>
       <c r="M799" t="n">
-        <v>130</v>
+        <v>172</v>
       </c>
     </row>
     <row r="800">
@@ -36452,7 +36452,7 @@
         <v>6.767942511132353</v>
       </c>
       <c r="M800" t="n">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="801">
@@ -36497,7 +36497,7 @@
         <v>7.625110120718116</v>
       </c>
       <c r="M801" t="n">
-        <v>-1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="802">
@@ -36542,7 +36542,7 @@
         <v>9.281001489013649</v>
       </c>
       <c r="M802" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="803">
@@ -36677,7 +36677,7 @@
         <v>2.237100754072112</v>
       </c>
       <c r="M805" t="n">
-        <v>-1</v>
+        <v>173</v>
       </c>
     </row>
     <row r="806">
@@ -36857,7 +36857,7 @@
         <v>8.422518852988398</v>
       </c>
       <c r="M809" t="n">
-        <v>-1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="810">
@@ -36902,7 +36902,7 @@
         <v>7.747887665348246</v>
       </c>
       <c r="M810" t="n">
-        <v>132</v>
+        <v>175</v>
       </c>
     </row>
     <row r="811">
@@ -36947,7 +36947,7 @@
         <v>2.199547010774694</v>
       </c>
       <c r="M811" t="n">
-        <v>122</v>
+        <v>162</v>
       </c>
     </row>
     <row r="812">
@@ -36992,7 +36992,7 @@
         <v>9.723219535901402</v>
       </c>
       <c r="M812" t="n">
-        <v>134</v>
+        <v>176</v>
       </c>
     </row>
     <row r="813">
@@ -37037,7 +37037,7 @@
         <v>9.537827139004525</v>
       </c>
       <c r="M813" t="n">
-        <v>134</v>
+        <v>176</v>
       </c>
     </row>
     <row r="814">
@@ -37082,7 +37082,7 @@
         <v>9.004323013543289</v>
       </c>
       <c r="M814" t="n">
-        <v>-1</v>
+        <v>176</v>
       </c>
     </row>
     <row r="815">
@@ -37172,7 +37172,7 @@
         <v>7.766522282369384</v>
       </c>
       <c r="M816" t="n">
-        <v>-1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="817">
@@ -37217,7 +37217,7 @@
         <v>9.49399315281523</v>
       </c>
       <c r="M817" t="n">
-        <v>134</v>
+        <v>176</v>
       </c>
     </row>
     <row r="818">
@@ -37307,7 +37307,7 @@
         <v>9.373210128277522</v>
       </c>
       <c r="M819" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="820">
@@ -37352,7 +37352,7 @@
         <v>9.662609065813736</v>
       </c>
       <c r="M820" t="n">
-        <v>134</v>
+        <v>176</v>
       </c>
     </row>
     <row r="821">
@@ -37397,7 +37397,7 @@
         <v>13.04748319976065</v>
       </c>
       <c r="M821" t="n">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="822">
@@ -37487,7 +37487,7 @@
         <v>16.11410730811853</v>
       </c>
       <c r="M823" t="n">
-        <v>-1</v>
+        <v>142</v>
       </c>
     </row>
     <row r="824">
@@ -37532,7 +37532,7 @@
         <v>9.71836551884765</v>
       </c>
       <c r="M824" t="n">
-        <v>134</v>
+        <v>176</v>
       </c>
     </row>
     <row r="825">
@@ -37712,7 +37712,7 @@
         <v>10.1451930656304</v>
       </c>
       <c r="M828" t="n">
-        <v>103</v>
+        <v>137</v>
       </c>
     </row>
     <row r="829">
@@ -37757,7 +37757,7 @@
         <v>9.185586401794255</v>
       </c>
       <c r="M829" t="n">
-        <v>-1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="830">
@@ -37802,7 +37802,7 @@
         <v>5.211986138371824</v>
       </c>
       <c r="M830" t="n">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="831">
@@ -37892,7 +37892,7 @@
         <v>19.13450540434382</v>
       </c>
       <c r="M832" t="n">
-        <v>-1</v>
+        <v>147</v>
       </c>
     </row>
     <row r="833">
@@ -38027,7 +38027,7 @@
         <v>10.81767563940709</v>
       </c>
       <c r="M835" t="n">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="836">
